--- a/WeekyReportList.xlsx
+++ b/WeekyReportList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wujf_nuc\Documents\GitHub\ReportCollation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332557F-F156-448B-9E3F-7E0C94FE3612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC95D1F-3A4D-4C22-9CE1-DA8F7ABB0729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1590" yWindow="2480" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>研发  部</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -472,6 +472,18 @@
   </si>
   <si>
     <t>王文静</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵闯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王静</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李彦锋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -969,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B1:B1048576"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1339,7 +1351,23 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
